--- a/Test.xlsx
+++ b/Test.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,41 @@
           <t>先鋒</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>狙擊</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>醫療</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>術師</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>近衛</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>重裝</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>輔助</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>特種</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -467,6 +502,118 @@
           <t>風笛</t>
         </is>
       </c>
+      <c r="E2" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>早露</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>夜鶯</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>霜星</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>棘刺</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>森蚺</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>鈴蘭</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>溫蒂</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -485,6 +632,118 @@
           <t>推進之王</t>
         </is>
       </c>
+      <c r="E3" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>閃靈</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>刻俄柏</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>煌</t>
+        </is>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="V3" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" s="1" t="inlineStr">
+        <is>
+          <t>年</t>
+        </is>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>麥哲倫</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF3" s="1" t="inlineStr">
+        <is>
+          <t>傀影</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -503,6 +762,118 @@
           <t>賈維</t>
         </is>
       </c>
+      <c r="E4" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>黑</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>亞葉</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>莫斯提馬</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T4" s="1" t="inlineStr">
+        <is>
+          <t>赫拉格</t>
+        </is>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="V4" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" s="1" t="inlineStr">
+        <is>
+          <t>塞雷婭</t>
+        </is>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="Z4" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>安潔莉娜</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="1" t="inlineStr">
+        <is>
+          <t>阿</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -521,6 +892,118 @@
           <t>極境</t>
         </is>
       </c>
+      <c r="E5" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>能天使</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>微風</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>伊芙利特</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T5" s="1" t="inlineStr">
+        <is>
+          <t>陳</t>
+        </is>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="V5" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="X5" s="1" t="inlineStr">
+        <is>
+          <t>星熊</t>
+        </is>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>稀音</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD5" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="1" t="inlineStr">
+        <is>
+          <t>雪雉</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -539,6 +1022,118 @@
           <t>葦草</t>
         </is>
       </c>
+      <c r="E6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>安哲拉</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>錫蘭</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>艾雅法拉</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="R6" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T6" s="1" t="inlineStr">
+        <is>
+          <t>斯卡蒂</t>
+        </is>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V6" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" s="1" t="inlineStr">
+        <is>
+          <t>石棉</t>
+        </is>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>月禾</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AD6" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="1" t="inlineStr">
+        <is>
+          <t>槐琥</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -557,6 +1152,118 @@
           <t>格拉尼</t>
         </is>
       </c>
+      <c r="E7" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>懾砂</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>華法琳</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>特米米</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="R7" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" s="1" t="inlineStr">
+        <is>
+          <t>銀灰</t>
+        </is>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="V7" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" s="1" t="inlineStr">
+        <is>
+          <t>吽</t>
+        </is>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z7" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="1" t="inlineStr">
+        <is>
+          <t>巫戀</t>
+        </is>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="AD7" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="1" t="inlineStr">
+        <is>
+          <t>食鐵獸</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -575,6 +1282,118 @@
           <t>德克薩斯</t>
         </is>
       </c>
+      <c r="E8" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>灰喉</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>白麵鴞</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" s="1" t="inlineStr">
+        <is>
+          <t>蜜蠟</t>
+        </is>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" s="1" t="inlineStr">
+        <is>
+          <t>燧石</t>
+        </is>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="V8" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X8" s="1" t="inlineStr">
+        <is>
+          <t>拜鬆</t>
+        </is>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="Z8" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="1" t="inlineStr">
+        <is>
+          <t>格勞克斯</t>
+        </is>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="AD8" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="1" t="inlineStr">
+        <is>
+          <t>獅蠍</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -593,6 +1412,118 @@
           <t>凜冬</t>
         </is>
       </c>
+      <c r="E9" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>送葬人</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>赫默</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>萊恩哈特</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="R9" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" s="1" t="inlineStr">
+        <is>
+          <t>斷崖</t>
+        </is>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="V9" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X9" s="1" t="inlineStr">
+        <is>
+          <t>火神</t>
+        </is>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="Z9" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="1" t="inlineStr">
+        <is>
+          <t>初雪</t>
+        </is>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="AD9" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="1" t="inlineStr">
+        <is>
+          <t>崖心</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -611,6 +1542,118 @@
           <t>桃金娘</t>
         </is>
       </c>
+      <c r="E10" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>藍毒</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>清流</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="N10" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" s="1" t="inlineStr">
+        <is>
+          <t>苦艾</t>
+        </is>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="R10" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" s="1" t="inlineStr">
+        <is>
+          <t>鑄鐵</t>
+        </is>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="V10" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" s="1" t="inlineStr">
+        <is>
+          <t>可頌</t>
+        </is>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="Z10" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="1" t="inlineStr">
+        <is>
+          <t>真理</t>
+        </is>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="AD10" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="1" t="inlineStr">
+        <is>
+          <t>紅</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -629,6 +1672,118 @@
           <t>紅豆</t>
         </is>
       </c>
+      <c r="E11" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>守林人</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>蘇蘇洛</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="N11" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
+        <is>
+          <t>驚蟄</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="R11" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" s="1" t="inlineStr">
+        <is>
+          <t>柏喙</t>
+        </is>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="V11" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X11" s="1" t="inlineStr">
+        <is>
+          <t>臨光</t>
+        </is>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="Z11" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="1" t="inlineStr">
+        <is>
+          <t>空</t>
+        </is>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF11" s="1" t="inlineStr">
+        <is>
+          <t>孑</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -647,6 +1802,118 @@
           <t>訊使</t>
         </is>
       </c>
+      <c r="E12" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>白金</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
+          <t>嘉維爾</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="N12" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" s="1" t="inlineStr">
+        <is>
+          <t>阿米婭</t>
+        </is>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="R12" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" s="1" t="inlineStr">
+        <is>
+          <t>布洛卡</t>
+        </is>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="V12" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" s="1" t="inlineStr">
+        <is>
+          <t>雷蛇</t>
+        </is>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="Z12" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="1" t="inlineStr">
+        <is>
+          <t>梅爾</t>
+        </is>
+      </c>
+      <c r="AC12" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD12" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="1" t="inlineStr">
+        <is>
+          <t>伊桑</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -665,6 +1932,118 @@
           <t>清道夫</t>
         </is>
       </c>
+      <c r="E13" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>普羅旺斯</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>調香師</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="N13" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" s="1" t="inlineStr">
+        <is>
+          <t>夜魔</t>
+        </is>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="R13" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" s="1" t="inlineStr">
+        <is>
+          <t>炎客</t>
+        </is>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="V13" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X13" s="1" t="inlineStr">
+        <is>
+          <t>堅雷</t>
+        </is>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z13" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="1" t="inlineStr">
+        <is>
+          <t>波登可</t>
+        </is>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="AD13" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="1" t="inlineStr">
+        <is>
+          <t>阿消</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -683,6 +2062,118 @@
           <t>芬</t>
         </is>
       </c>
+      <c r="E14" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>隕星</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1" t="inlineStr">
+        <is>
+          <t>末藥</t>
+        </is>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="N14" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" s="1" t="inlineStr">
+        <is>
+          <t>天火</t>
+        </is>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="R14" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" s="1" t="inlineStr">
+        <is>
+          <t>星極</t>
+        </is>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="V14" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X14" s="1" t="inlineStr">
+        <is>
+          <t>蛇屠箱</t>
+        </is>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="Z14" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="1" t="inlineStr">
+        <is>
+          <t>深海色</t>
+        </is>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="AD14" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="1" t="inlineStr">
+        <is>
+          <t>暗索</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -701,6 +2192,118 @@
           <t>翎羽</t>
         </is>
       </c>
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>酸糖</t>
+        </is>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1" t="inlineStr">
+        <is>
+          <t>安賽爾</t>
+        </is>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="N15" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P15" s="1" t="inlineStr">
+        <is>
+          <t>卡達</t>
+        </is>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="R15" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" s="1" t="inlineStr">
+        <is>
+          <t>詩懷雅</t>
+        </is>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="V15" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X15" s="1" t="inlineStr">
+        <is>
+          <t>角峰</t>
+        </is>
+      </c>
+      <c r="Y15" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="Z15" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="1" t="inlineStr">
+        <is>
+          <t>地靈</t>
+        </is>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD15" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF15" s="1" t="inlineStr">
+        <is>
+          <t>礫</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -719,6 +2322,118 @@
           <t>香草</t>
         </is>
       </c>
+      <c r="E16" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>安比爾</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1" t="inlineStr">
+        <is>
+          <t>芙蓉</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="N16" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" s="1" t="inlineStr">
+        <is>
+          <t>格雷伊</t>
+        </is>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="R16" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" s="1" t="inlineStr">
+        <is>
+          <t>暴行</t>
+        </is>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="V16" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X16" s="1" t="inlineStr">
+        <is>
+          <t>古米</t>
+        </is>
+      </c>
+      <c r="Y16" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z16" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AA16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="1" t="inlineStr">
+        <is>
+          <t>梓蘭</t>
+        </is>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD16" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AE16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="1" t="inlineStr">
+        <is>
+          <t>THRM-EX</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -737,10 +2452,641 @@
           <t>夜刀</t>
         </is>
       </c>
+      <c r="E17" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>梅</t>
+        </is>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="J17" s="1" t="inlineStr">
+        <is>
+          <t>medic</t>
+        </is>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="inlineStr">
+        <is>
+          <t>Lancet-2</t>
+        </is>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="N17" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" s="1" t="inlineStr">
+        <is>
+          <t>遠山</t>
+        </is>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="R17" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" s="1" t="inlineStr">
+        <is>
+          <t>幽靈鯊</t>
+        </is>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="V17" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X17" s="1" t="inlineStr">
+        <is>
+          <t>斑點</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>紅雲</t>
+        </is>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="N18" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P18" s="1" t="inlineStr">
+        <is>
+          <t>夜煙</t>
+        </is>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="R18" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" s="1" t="inlineStr">
+        <is>
+          <t>拉普蘭德</t>
+        </is>
+      </c>
+      <c r="U18" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="V18" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X18" s="1" t="inlineStr">
+        <is>
+          <t>米格魯</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>傑西卡</t>
+        </is>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="N19" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" s="1" t="inlineStr">
+        <is>
+          <t>炎熔</t>
+        </is>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="R19" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" s="1" t="inlineStr">
+        <is>
+          <t>因陀羅</t>
+        </is>
+      </c>
+      <c r="U19" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="V19" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X19" s="1" t="inlineStr">
+        <is>
+          <t>卡緹</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>流星</t>
+        </is>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="N20" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" s="1" t="inlineStr">
+        <is>
+          <t>史都華德</t>
+        </is>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="R20" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" s="1" t="inlineStr">
+        <is>
+          <t>芙蘭卡</t>
+        </is>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="V20" s="1" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="W20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" s="1" t="inlineStr">
+        <is>
+          <t>黑角</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>白雪</t>
+        </is>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="N21" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" s="1" t="inlineStr">
+        <is>
+          <t>12F</t>
+        </is>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="R21" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" s="1" t="inlineStr">
+        <is>
+          <t>刻刀</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>空爆</t>
+        </is>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="N22" s="1" t="inlineStr">
+        <is>
+          <t>caster</t>
+        </is>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" s="1" t="inlineStr">
+        <is>
+          <t>杜林</t>
+        </is>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="R22" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" s="1" t="inlineStr">
+        <is>
+          <t>斷罪者</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>安德切爾</t>
+        </is>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="R23" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" s="1" t="inlineStr">
+        <is>
+          <t>宴</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>克洛絲</t>
+        </is>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="R24" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" s="1" t="inlineStr">
+        <is>
+          <t>獵蜂</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>sniper</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
+        <is>
+          <t>巡林者</t>
+        </is>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="R25" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" s="1" t="inlineStr">
+        <is>
+          <t>慕斯</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="Q26" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="R26" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" s="1" t="inlineStr">
+        <is>
+          <t>艾絲黛爾</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="Q27" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="R27" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" s="1" t="inlineStr">
+        <is>
+          <t>霜葉</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="Q28" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="R28" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" s="1" t="inlineStr">
+        <is>
+          <t>纏丸</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="Q29" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="R29" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" s="1" t="inlineStr">
+        <is>
+          <t>杜賓</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="Q30" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="R30" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" s="1" t="inlineStr">
+        <is>
+          <t>泡普卡</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="Q31" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="R31" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" s="1" t="inlineStr">
+        <is>
+          <t>玫蘭莎</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="Q32" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="R32" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" s="1" t="inlineStr">
+        <is>
+          <t>月見夜</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="Q33" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="R33" s="1" t="inlineStr">
+        <is>
+          <t>warrior</t>
+        </is>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1" t="inlineStr">
+        <is>
+          <t>Castle-3</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -12,7 +12,17 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Skill" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Elite" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="職業">Summary!$A$1:$A$8</definedName>
+    <definedName name="先鋒">Summary!$D$1:$D$21</definedName>
+    <definedName name="狙擊">Summary!$G$1:$G$29</definedName>
+    <definedName name="醫療">Summary!$J$1:$J$21</definedName>
+    <definedName name="術師">Summary!$M$1:$M$27</definedName>
+    <definedName name="近衛">Summary!$P$1:$P$38</definedName>
+    <definedName name="重裝">Summary!$S$1:$S$24</definedName>
+    <definedName name="輔助">Summary!$V$1:$V$19</definedName>
+    <definedName name="特種">Summary!$Y$1:$Y$19</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -419,14 +429,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2"/>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="A2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=職業</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=INDIRECT(A2)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -437,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,2378 +465,2099 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="5" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="11" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="11" customWidth="1" min="18" max="18"/>
-    <col width="5" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="11" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="11" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="5" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="11" customWidth="1" min="19" max="19"/>
+    <col width="5" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="11" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="11" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>先鋒</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>----6----</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>----6----</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>----6----</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>----6----</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>----6----</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>----6----</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>----6----</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>----6----</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>狙擊</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>風笛</t>
         </is>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="E2" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>早露</t>
         </is>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>夜鶯</t>
         </is>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>霜星</t>
         </is>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>棘刺</t>
         </is>
       </c>
-      <c r="P2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>森蚺</t>
         </is>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="U2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>鈴蘭</t>
         </is>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="W2" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="inlineStr">
+      <c r="X2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
         <is>
           <t>溫蒂</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>醫療</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>推進之王</t>
         </is>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="E3" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="H3" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>閃靈</t>
         </is>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="K3" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>刻俄柏</t>
         </is>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="N3" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>煌</t>
         </is>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="Q3" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R3" s="1" t="inlineStr">
+      <c r="R3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
         <is>
           <t>年</t>
         </is>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="T3" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U3" s="1" t="inlineStr">
+      <c r="U3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" s="1" t="inlineStr">
         <is>
           <t>麥哲倫</t>
         </is>
       </c>
-      <c r="V3" s="1" t="n">
+      <c r="W3" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="W3" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X3" s="1" t="inlineStr">
+      <c r="X3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="1" t="inlineStr">
         <is>
           <t>傀影</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>術師</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>----5----</t>
         </is>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="E4" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>黑</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="J4" s="1" t="inlineStr">
         <is>
           <t>----5----</t>
         </is>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
+      <c r="L4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
         <is>
           <t>莫斯提馬</t>
         </is>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="N4" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="N4" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
+      <c r="O4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
         <is>
           <t>赫拉格</t>
         </is>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="Q4" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R4" s="1" t="inlineStr">
+      <c r="R4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S4" s="1" t="inlineStr">
         <is>
           <t>塞雷婭</t>
         </is>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="T4" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="T4" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U4" s="1" t="inlineStr">
+      <c r="U4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" s="1" t="inlineStr">
         <is>
           <t>安潔莉娜</t>
         </is>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="W4" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="W4" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X4" s="1" t="inlineStr">
+      <c r="X4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="1" t="inlineStr">
         <is>
           <t>阿</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>近衛</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>賈維</t>
         </is>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="E5" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>能天使</t>
         </is>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="H5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>亞葉</t>
         </is>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="L5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
         <is>
           <t>伊芙利特</t>
         </is>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="N5" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="N5" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
+      <c r="O5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
         <is>
           <t>陳</t>
         </is>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="Q5" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R5" s="1" t="inlineStr">
+      <c r="R5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
         <is>
           <t>星熊</t>
         </is>
       </c>
-      <c r="U5" s="1" t="inlineStr">
+      <c r="V5" s="1" t="inlineStr">
         <is>
           <t>----5----</t>
         </is>
       </c>
-      <c r="X5" s="1" t="inlineStr">
+      <c r="Y5" s="1" t="inlineStr">
         <is>
           <t>----5----</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>重裝</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t>極境</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>----5----</t>
         </is>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="H6" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="I6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
         <is>
           <t>微風</t>
         </is>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
+      <c r="L6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
         <is>
           <t>艾雅法拉</t>
         </is>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="N6" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="N6" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
+      <c r="O6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
         <is>
           <t>斯卡蒂</t>
         </is>
       </c>
-      <c r="R6" s="1" t="inlineStr">
+      <c r="S6" s="1" t="inlineStr">
         <is>
           <t>----5----</t>
         </is>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="T6" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="T6" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U6" s="1" t="inlineStr">
+      <c r="U6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" s="1" t="inlineStr">
         <is>
           <t>稀音</t>
         </is>
       </c>
-      <c r="V6" s="1" t="n">
+      <c r="W6" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="W6" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X6" s="1" t="inlineStr">
+      <c r="X6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="1" t="inlineStr">
         <is>
           <t>雪雉</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>輔助</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>葦草</t>
         </is>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="E7" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>安哲拉</t>
         </is>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="H7" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
         <is>
           <t>錫蘭</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr">
+      <c r="M7" s="1" t="inlineStr">
         <is>
           <t>----5----</t>
         </is>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="N7" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="N7" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr">
+      <c r="O7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
         <is>
           <t>銀灰</t>
         </is>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="Q7" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="Q7" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R7" s="1" t="inlineStr">
+      <c r="R7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1" t="inlineStr">
         <is>
           <t>石棉</t>
         </is>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="T7" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="T7" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U7" s="1" t="inlineStr">
+      <c r="U7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" s="1" t="inlineStr">
         <is>
           <t>月禾</t>
         </is>
       </c>
-      <c r="V7" s="1" t="n">
+      <c r="W7" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="W7" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X7" s="1" t="inlineStr">
+      <c r="X7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="1" t="inlineStr">
         <is>
           <t>槐琥</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>特種</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
         <is>
           <t>格拉尼</t>
         </is>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="E8" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>懾砂</t>
         </is>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="H8" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="I8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
         <is>
           <t>華法琳</t>
         </is>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="K8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L8" s="1" t="inlineStr">
+      <c r="L8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1" t="inlineStr">
         <is>
           <t>薄綠</t>
         </is>
       </c>
-      <c r="O8" s="1" t="inlineStr">
+      <c r="P8" s="1" t="inlineStr">
         <is>
           <t>----5----</t>
         </is>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="Q8" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="Q8" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R8" s="1" t="inlineStr">
+      <c r="R8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" s="1" t="inlineStr">
         <is>
           <t>吽</t>
         </is>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="T8" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="T8" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U8" s="1" t="inlineStr">
+      <c r="U8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" s="1" t="inlineStr">
         <is>
           <t>巫戀</t>
         </is>
       </c>
-      <c r="V8" s="1" t="n">
+      <c r="W8" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="W8" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X8" s="1" t="inlineStr">
+      <c r="X8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="1" t="inlineStr">
         <is>
           <t>食鐵獸</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
         <is>
           <t>德克薩斯</t>
         </is>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="E9" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>灰喉</t>
         </is>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="H9" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="I9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
         <is>
           <t>白麵鴞</t>
         </is>
       </c>
-      <c r="J9" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L9" s="1" t="inlineStr">
+      <c r="K9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
         <is>
           <t>特米米</t>
         </is>
       </c>
-      <c r="M9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O9" s="1" t="inlineStr">
+      <c r="N9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
         <is>
           <t>燧石</t>
         </is>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="Q9" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="Q9" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R9" s="1" t="inlineStr">
+      <c r="R9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" s="1" t="inlineStr">
         <is>
           <t>拜鬆</t>
         </is>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="T9" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="T9" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U9" s="1" t="inlineStr">
+      <c r="U9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" s="1" t="inlineStr">
         <is>
           <t>格勞克斯</t>
         </is>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="W9" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="W9" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X9" s="1" t="inlineStr">
+      <c r="X9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="1" t="inlineStr">
         <is>
           <t>獅蠍</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
         <is>
           <t>凜冬</t>
         </is>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="E10" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>送葬人</t>
         </is>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="H10" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="I10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
         <is>
           <t>赫默</t>
         </is>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="K10" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="inlineStr">
+      <c r="L10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
         <is>
           <t>蜜蠟</t>
         </is>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="N10" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="N10" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O10" s="1" t="inlineStr">
+      <c r="O10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" s="1" t="inlineStr">
         <is>
           <t>斷崖</t>
         </is>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="Q10" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="Q10" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R10" s="1" t="inlineStr">
+      <c r="R10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1" t="inlineStr">
         <is>
           <t>火神</t>
         </is>
       </c>
-      <c r="S10" s="1" t="n">
+      <c r="T10" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="T10" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U10" s="1" t="inlineStr">
+      <c r="U10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" s="1" t="inlineStr">
         <is>
           <t>初雪</t>
         </is>
       </c>
-      <c r="V10" s="1" t="n">
+      <c r="W10" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="W10" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X10" s="1" t="inlineStr">
+      <c r="X10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="1" t="inlineStr">
         <is>
           <t>崖心</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="1" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>----4----</t>
         </is>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="E11" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>藍毒</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="J11" s="1" t="inlineStr">
         <is>
           <t>----4----</t>
         </is>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="K11" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="K11" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L11" s="1" t="inlineStr">
+      <c r="L11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" s="1" t="inlineStr">
         <is>
           <t>萊恩哈特</t>
         </is>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="N11" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="N11" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O11" s="1" t="inlineStr">
+      <c r="O11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
         <is>
           <t>鑄鐵</t>
         </is>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="Q11" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="Q11" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R11" s="1" t="inlineStr">
+      <c r="R11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" s="1" t="inlineStr">
         <is>
           <t>可頌</t>
         </is>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="T11" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="T11" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U11" s="1" t="inlineStr">
+      <c r="U11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" s="1" t="inlineStr">
         <is>
           <t>真理</t>
         </is>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="W11" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="W11" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X11" s="1" t="inlineStr">
+      <c r="X11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="1" t="inlineStr">
         <is>
           <t>紅</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
         <is>
           <t>桃金娘</t>
         </is>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="E12" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
         <is>
           <t>守林人</t>
         </is>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="H12" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="I12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
         <is>
           <t>清流</t>
         </is>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="K12" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="K12" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L12" s="1" t="inlineStr">
+      <c r="L12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1" t="inlineStr">
         <is>
           <t>苦艾</t>
         </is>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="N12" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="N12" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O12" s="1" t="inlineStr">
+      <c r="O12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" s="1" t="inlineStr">
         <is>
           <t>柏喙</t>
         </is>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="Q12" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="Q12" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R12" s="1" t="inlineStr">
+      <c r="R12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" s="1" t="inlineStr">
         <is>
           <t>臨光</t>
         </is>
       </c>
-      <c r="S12" s="1" t="n">
+      <c r="T12" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="T12" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U12" s="1" t="inlineStr">
+      <c r="U12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" s="1" t="inlineStr">
         <is>
           <t>空</t>
         </is>
       </c>
-      <c r="X12" s="1" t="inlineStr">
+      <c r="Y12" s="1" t="inlineStr">
         <is>
           <t>----4----</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>紅豆</t>
         </is>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="E13" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
         <is>
           <t>白金</t>
         </is>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="H13" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="I13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
         <is>
           <t>蘇蘇洛</t>
         </is>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="K13" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="K13" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L13" s="1" t="inlineStr">
+      <c r="L13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1" t="inlineStr">
         <is>
           <t>驚蟄</t>
         </is>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="N13" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="N13" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O13" s="1" t="inlineStr">
+      <c r="O13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" s="1" t="inlineStr">
         <is>
           <t>布洛卡</t>
         </is>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="Q13" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="Q13" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R13" s="1" t="inlineStr">
+      <c r="R13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" s="1" t="inlineStr">
         <is>
           <t>雷蛇</t>
         </is>
       </c>
-      <c r="S13" s="1" t="n">
+      <c r="T13" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="T13" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U13" s="1" t="inlineStr">
+      <c r="U13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" s="1" t="inlineStr">
         <is>
           <t>梅爾</t>
         </is>
       </c>
-      <c r="V13" s="1" t="n">
+      <c r="W13" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="W13" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X13" s="1" t="inlineStr">
+      <c r="X13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="1" t="inlineStr">
         <is>
           <t>孑</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
         <is>
           <t>訊使</t>
         </is>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="E14" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
         <is>
           <t>普羅旺斯</t>
         </is>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="H14" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="I14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
         <is>
           <t>嘉維爾</t>
         </is>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="K14" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="K14" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L14" s="1" t="inlineStr">
+      <c r="L14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1" t="inlineStr">
         <is>
           <t>阿米婭</t>
         </is>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="N14" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="N14" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O14" s="1" t="inlineStr">
+      <c r="O14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" s="1" t="inlineStr">
         <is>
           <t>炎客</t>
         </is>
       </c>
-      <c r="R14" s="1" t="inlineStr">
+      <c r="S14" s="1" t="inlineStr">
         <is>
           <t>----4----</t>
         </is>
       </c>
-      <c r="U14" s="1" t="inlineStr">
+      <c r="V14" s="1" t="inlineStr">
         <is>
           <t>----4----</t>
         </is>
       </c>
-      <c r="V14" s="1" t="n">
+      <c r="W14" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="W14" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X14" s="1" t="inlineStr">
+      <c r="X14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="1" t="inlineStr">
         <is>
           <t>伊桑</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
         <is>
           <t>清道夫</t>
         </is>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="E15" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>隕星</t>
         </is>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="H15" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="I15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
         <is>
           <t>調香師</t>
         </is>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="K15" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="K15" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L15" s="1" t="inlineStr">
+      <c r="L15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" s="1" t="inlineStr">
         <is>
           <t>夜魔</t>
         </is>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="N15" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="N15" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O15" s="1" t="inlineStr">
+      <c r="O15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P15" s="1" t="inlineStr">
         <is>
           <t>星極</t>
         </is>
       </c>
-      <c r="P15" s="1" t="n">
+      <c r="Q15" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="Q15" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R15" s="1" t="inlineStr">
+      <c r="R15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" s="1" t="inlineStr">
         <is>
           <t>堅雷</t>
         </is>
       </c>
-      <c r="S15" s="1" t="n">
+      <c r="T15" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="T15" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U15" s="1" t="inlineStr">
+      <c r="U15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" s="1" t="inlineStr">
         <is>
           <t>波登可</t>
         </is>
       </c>
-      <c r="V15" s="1" t="n">
+      <c r="W15" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="W15" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X15" s="1" t="inlineStr">
+      <c r="X15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="1" t="inlineStr">
         <is>
           <t>阿消</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="1" t="inlineStr">
+      <c r="D16" s="1" t="inlineStr">
         <is>
           <t>----3----</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="G16" s="1" t="inlineStr">
         <is>
           <t>----4----</t>
         </is>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="H16" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="I16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
         <is>
           <t>末藥</t>
         </is>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="K16" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="K16" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L16" s="1" t="inlineStr">
+      <c r="L16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" s="1" t="inlineStr">
         <is>
           <t>天火</t>
         </is>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="N16" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="N16" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O16" s="1" t="inlineStr">
+      <c r="O16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P16" s="1" t="inlineStr">
         <is>
           <t>詩懷雅</t>
         </is>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="Q16" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="Q16" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R16" s="1" t="inlineStr">
+      <c r="R16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" s="1" t="inlineStr">
         <is>
           <t>蛇屠箱</t>
         </is>
       </c>
-      <c r="S16" s="1" t="n">
+      <c r="T16" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="T16" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U16" s="1" t="inlineStr">
+      <c r="U16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" s="1" t="inlineStr">
         <is>
           <t>深海色</t>
         </is>
       </c>
-      <c r="V16" s="1" t="n">
+      <c r="W16" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="W16" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X16" s="1" t="inlineStr">
+      <c r="X16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="1" t="inlineStr">
         <is>
           <t>暗索</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
         <is>
           <t>芬</t>
         </is>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="E17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
         <is>
           <t>酸糖</t>
         </is>
       </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="J17" s="1" t="inlineStr">
         <is>
           <t>----3----</t>
         </is>
       </c>
-      <c r="L17" s="1" t="inlineStr">
+      <c r="M17" s="1" t="inlineStr">
         <is>
           <t>----4----</t>
         </is>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="N17" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="N17" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O17" s="1" t="inlineStr">
+      <c r="O17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P17" s="1" t="inlineStr">
         <is>
           <t>暴行</t>
         </is>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="Q17" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="Q17" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R17" s="1" t="inlineStr">
+      <c r="R17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" s="1" t="inlineStr">
         <is>
           <t>角峰</t>
         </is>
       </c>
-      <c r="S17" s="1" t="n">
+      <c r="T17" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="T17" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U17" s="1" t="inlineStr">
+      <c r="U17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" s="1" t="inlineStr">
         <is>
           <t>地靈</t>
         </is>
       </c>
-      <c r="V17" s="1" t="n">
+      <c r="W17" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="W17" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X17" s="1" t="inlineStr">
+      <c r="X17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="1" t="inlineStr">
         <is>
           <t>礫</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
         <is>
           <t>翎羽</t>
         </is>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="E18" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="E18" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
         <is>
           <t>安比爾</t>
         </is>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="H18" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="I18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1" t="inlineStr">
         <is>
           <t>安賽爾</t>
         </is>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="K18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="K18" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L18" s="1" t="inlineStr">
+      <c r="L18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" s="1" t="inlineStr">
         <is>
           <t>卡達</t>
         </is>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="N18" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="N18" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O18" s="1" t="inlineStr">
+      <c r="O18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" s="1" t="inlineStr">
         <is>
           <t>幽靈鯊</t>
         </is>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="Q18" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="Q18" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R18" s="1" t="inlineStr">
+      <c r="R18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" s="1" t="inlineStr">
         <is>
           <t>古米</t>
         </is>
       </c>
-      <c r="U18" s="1" t="inlineStr">
+      <c r="V18" s="1" t="inlineStr">
         <is>
           <t>----3----</t>
         </is>
       </c>
-      <c r="X18" s="1" t="inlineStr">
+      <c r="Y18" s="1" t="inlineStr">
         <is>
           <t>----1----</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
         <is>
           <t>香草</t>
         </is>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="E19" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="E19" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
         <is>
           <t>梅</t>
         </is>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="H19" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="I19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1" t="inlineStr">
         <is>
           <t>芙蓉</t>
         </is>
       </c>
-      <c r="J19" s="1" t="n">
+      <c r="K19" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="K19" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L19" s="1" t="inlineStr">
+      <c r="L19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1" t="inlineStr">
         <is>
           <t>格雷伊</t>
         </is>
       </c>
-      <c r="M19" s="1" t="n">
+      <c r="N19" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="N19" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O19" s="1" t="inlineStr">
+      <c r="O19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P19" s="1" t="inlineStr">
         <is>
           <t>拉普蘭德</t>
         </is>
       </c>
-      <c r="R19" s="1" t="inlineStr">
+      <c r="S19" s="1" t="inlineStr">
         <is>
           <t>----3----</t>
         </is>
       </c>
-      <c r="S19" s="1" t="n">
+      <c r="T19" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="T19" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="U19" s="1" t="inlineStr">
+      <c r="U19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" s="1" t="inlineStr">
         <is>
           <t>梓蘭</t>
         </is>
       </c>
-      <c r="V19" s="1" t="n">
+      <c r="W19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="W19" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="X19" s="1" t="inlineStr">
+      <c r="X19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1" t="inlineStr">
         <is>
           <t>THRM-EX</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="1" t="inlineStr">
+      <c r="D20" s="1" t="inlineStr">
         <is>
           <t>----2----</t>
         </is>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="E20" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
         <is>
           <t>紅雲</t>
         </is>
       </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="J20" s="1" t="inlineStr">
         <is>
           <t>----1----</t>
         </is>
       </c>
-      <c r="J20" s="1" t="n">
+      <c r="K20" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="K20" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L20" s="1" t="inlineStr">
+      <c r="L20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" s="1" t="inlineStr">
         <is>
           <t>遠山</t>
         </is>
       </c>
-      <c r="M20" s="1" t="n">
+      <c r="N20" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="N20" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O20" s="1" t="inlineStr">
+      <c r="O20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P20" s="1" t="inlineStr">
         <is>
           <t>因陀羅</t>
         </is>
       </c>
-      <c r="P20" s="1" t="n">
+      <c r="Q20" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="Q20" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R20" s="1" t="inlineStr">
+      <c r="R20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" s="1" t="inlineStr">
         <is>
           <t>斑點</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>pioneer</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
         <is>
           <t>夜刀</t>
         </is>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="E21" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
         <is>
           <t>傑西卡</t>
         </is>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="H21" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>medic</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="I21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="inlineStr">
         <is>
           <t>Lancet-2</t>
         </is>
       </c>
-      <c r="J21" s="1" t="n">
+      <c r="K21" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="K21" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L21" s="1" t="inlineStr">
+      <c r="L21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" s="1" t="inlineStr">
         <is>
           <t>夜煙</t>
         </is>
       </c>
-      <c r="M21" s="1" t="n">
+      <c r="N21" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="N21" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O21" s="1" t="inlineStr">
+      <c r="O21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P21" s="1" t="inlineStr">
         <is>
           <t>芙蘭卡</t>
         </is>
       </c>
-      <c r="P21" s="1" t="n">
+      <c r="Q21" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="Q21" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R21" s="1" t="inlineStr">
+      <c r="R21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" s="1" t="inlineStr">
         <is>
           <t>米格魯</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="D22" s="1" t="n">
+      <c r="E22" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
         <is>
           <t>流星</t>
         </is>
       </c>
-      <c r="L22" s="1" t="inlineStr">
+      <c r="M22" s="1" t="inlineStr">
         <is>
           <t>----3----</t>
         </is>
       </c>
-      <c r="O22" s="1" t="inlineStr">
+      <c r="P22" s="1" t="inlineStr">
         <is>
           <t>----4----</t>
         </is>
       </c>
-      <c r="P22" s="1" t="n">
+      <c r="Q22" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="Q22" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R22" s="1" t="inlineStr">
+      <c r="R22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" s="1" t="inlineStr">
         <is>
           <t>卡緹</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="D23" s="1" t="n">
+      <c r="E23" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
         <is>
           <t>白雪</t>
         </is>
       </c>
-      <c r="J23" s="1" t="n">
+      <c r="K23" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="K23" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L23" s="1" t="inlineStr">
+      <c r="L23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1" t="inlineStr">
         <is>
           <t>炎熔</t>
         </is>
       </c>
-      <c r="M23" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N23" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O23" s="1" t="inlineStr">
+      <c r="N23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" s="1" t="inlineStr">
         <is>
           <t>芳汀</t>
         </is>
       </c>
-      <c r="R23" s="1" t="inlineStr">
+      <c r="S23" s="1" t="inlineStr">
         <is>
           <t>----2----</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="F24" s="1" t="inlineStr">
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>----3----</t>
         </is>
       </c>
-      <c r="J24" s="1" t="n">
+      <c r="K24" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="K24" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L24" s="1" t="inlineStr">
+      <c r="L24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" s="1" t="inlineStr">
         <is>
           <t>史都華德</t>
         </is>
       </c>
-      <c r="M24" s="1" t="n">
+      <c r="N24" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="N24" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O24" s="1" t="inlineStr">
+      <c r="O24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P24" s="1" t="inlineStr">
         <is>
           <t>刻刀</t>
         </is>
       </c>
-      <c r="P24" s="1" t="n">
+      <c r="Q24" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="Q24" s="1" t="inlineStr">
-        <is>
-          <t>tank</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="inlineStr">
+      <c r="R24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" s="1" t="inlineStr">
         <is>
           <t>黑角</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="D25" s="1" t="n">
+      <c r="E25" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="E25" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
         <is>
           <t>空爆</t>
         </is>
       </c>
-      <c r="L25" s="1" t="inlineStr">
+      <c r="M25" s="1" t="inlineStr">
         <is>
           <t>----2----</t>
         </is>
       </c>
-      <c r="M25" s="1" t="n">
+      <c r="N25" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="N25" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O25" s="1" t="inlineStr">
+      <c r="O25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P25" s="1" t="inlineStr">
         <is>
           <t>斷罪者</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="D26" s="1" t="n">
+      <c r="E26" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="E26" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
         <is>
           <t>安德切爾</t>
         </is>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="K26" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="K26" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L26" s="1" t="inlineStr">
+      <c r="L26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1" t="inlineStr">
         <is>
           <t>12F</t>
         </is>
       </c>
-      <c r="M26" s="1" t="n">
+      <c r="N26" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="N26" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O26" s="1" t="inlineStr">
+      <c r="O26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" s="1" t="inlineStr">
         <is>
           <t>宴</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="1" t="n">
+      <c r="E27" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>克洛絲</t>
         </is>
       </c>
-      <c r="J27" s="1" t="n">
+      <c r="K27" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="K27" s="1" t="inlineStr">
-        <is>
-          <t>caster</t>
-        </is>
-      </c>
-      <c r="L27" s="1" t="inlineStr">
+      <c r="L27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1" t="inlineStr">
         <is>
           <t>杜林</t>
         </is>
       </c>
-      <c r="M27" s="1" t="n">
+      <c r="N27" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="N27" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O27" s="1" t="inlineStr">
+      <c r="O27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P27" s="1" t="inlineStr">
         <is>
           <t>獵蜂</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="F28" s="1" t="inlineStr">
+      <c r="G28" s="1" t="inlineStr">
         <is>
           <t>----2----</t>
         </is>
       </c>
-      <c r="M28" s="1" t="n">
+      <c r="N28" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="N28" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O28" s="1" t="inlineStr">
+      <c r="O28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P28" s="1" t="inlineStr">
         <is>
           <t>慕斯</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="D29" s="1" t="n">
+      <c r="E29" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>sniper</t>
-        </is>
-      </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
         <is>
           <t>巡林者</t>
         </is>
       </c>
-      <c r="M29" s="1" t="n">
+      <c r="N29" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="N29" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O29" s="1" t="inlineStr">
+      <c r="O29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P29" s="1" t="inlineStr">
         <is>
           <t>艾絲黛爾</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="M30" s="1" t="n">
+      <c r="N30" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="N30" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O30" s="1" t="inlineStr">
+      <c r="O30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P30" s="1" t="inlineStr">
         <is>
           <t>霜葉</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="M31" s="1" t="n">
+      <c r="N31" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="N31" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O31" s="1" t="inlineStr">
+      <c r="O31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P31" s="1" t="inlineStr">
         <is>
           <t>纏丸</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="M32" s="1" t="n">
+      <c r="N32" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="N32" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O32" s="1" t="inlineStr">
+      <c r="O32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P32" s="1" t="inlineStr">
         <is>
           <t>杜賓</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="O33" s="1" t="inlineStr">
+      <c r="P33" s="1" t="inlineStr">
         <is>
           <t>----3----</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="M34" s="1" t="n">
+      <c r="N34" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="N34" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O34" s="1" t="inlineStr">
+      <c r="O34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" s="1" t="inlineStr">
         <is>
           <t>泡普卡</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="M35" s="1" t="n">
+      <c r="N35" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="N35" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O35" s="1" t="inlineStr">
+      <c r="O35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" s="1" t="inlineStr">
         <is>
           <t>玫蘭莎</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="M36" s="1" t="n">
+      <c r="N36" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="N36" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O36" s="1" t="inlineStr">
+      <c r="O36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" s="1" t="inlineStr">
         <is>
           <t>月見夜</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="O37" s="1" t="inlineStr">
+      <c r="P37" s="1" t="inlineStr">
         <is>
           <t>----1----</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="M38" s="1" t="n">
+      <c r="N38" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="N38" s="1" t="inlineStr">
-        <is>
-          <t>warrior</t>
-        </is>
-      </c>
-      <c r="O38" s="1" t="inlineStr">
+      <c r="O38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1" t="inlineStr">
         <is>
           <t>Castle-3</t>
         </is>
       </c>
     </row>
+    <row r="39"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
+    <col width="2" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="1" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="2" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -468,15 +480,46 @@
       <c r="C2" s="1" t="n"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>技能等級0</t>
+          <t>技能等級1</t>
         </is>
       </c>
       <c r="F2" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 2, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 2, FALSE), ""))</f>
         <v/>
       </c>
       <c r="G2" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 3, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 3, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>技能1</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>專1</t>
+        </is>
+      </c>
+      <c r="K2" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 30, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 30, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L2" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 31, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 31, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>菁英1</t>
+        </is>
+      </c>
+      <c r="O2" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 2, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 2, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="P2" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 3, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 3, FALSE), ""))</f>
         <v/>
       </c>
     </row>
@@ -489,212 +532,581 @@
       <c r="C3" s="1" t="n"/>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>技能等級1</t>
+          <t>技能等級2</t>
         </is>
       </c>
       <c r="F3" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 4, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 4, FALSE), ""))</f>
         <v/>
       </c>
       <c r="G3" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 5, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 5, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 32, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 32, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L3" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 33, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 33, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 4, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 4, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="P3" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 5, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 5, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 6, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 6, FALSE), ""))</f>
         <v/>
       </c>
       <c r="G4" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 7, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 7, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 34, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 34, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L4" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 35, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 35, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 6, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 6, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="P4" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 7, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 7, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), ""))</f>
         <v/>
       </c>
       <c r="G5" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 9, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 9, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>專2</t>
+        </is>
+      </c>
+      <c r="K5" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 36, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 36, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L5" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 37, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 37, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 8, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 8, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="P5" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 9, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 9, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>技能等級2</t>
+          <t>技能等級3</t>
         </is>
       </c>
       <c r="F6" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 10, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 10, FALSE), ""))</f>
         <v/>
       </c>
       <c r="G6" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 11, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 11, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 38, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 38, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L6" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 39, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 39, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>菁英2</t>
+        </is>
+      </c>
+      <c r="O6" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 10, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 10, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="P6" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 11, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 11, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 12, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 12, FALSE), ""))</f>
         <v/>
       </c>
       <c r="G7" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 13, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 13, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 40, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 40, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L7" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 41, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 41, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 12, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 12, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="P7" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 13, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 13, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>技能等級3</t>
+          <t>技能等級4</t>
         </is>
       </c>
       <c r="F8" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 14, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 14, FALSE), ""))</f>
         <v/>
       </c>
       <c r="G8" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 15, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 15, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>專3</t>
+        </is>
+      </c>
+      <c r="K8" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 42, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 42, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L8" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 43, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 43, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 14, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 14, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="P8" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 15, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 15, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 16, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 16, FALSE), ""))</f>
         <v/>
       </c>
       <c r="G9" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 17, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 17, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 44, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 44, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L9" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 45, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 45, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 16, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 16, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="P9" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 17, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 17, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 18, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 18, FALSE), ""))</f>
         <v/>
       </c>
       <c r="G10" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 19, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 19, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 46, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 46, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L10" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 47, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 47, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>技能等級4</t>
+          <t>技能等級5</t>
         </is>
       </c>
       <c r="F11" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 20, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 20, FALSE), ""))</f>
         <v/>
       </c>
       <c r="G11" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 21, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 21, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>技能2</t>
+        </is>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>專1</t>
+        </is>
+      </c>
+      <c r="K11" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 48, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 48, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L11" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 49, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 49, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 22, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 22, FALSE), ""))</f>
         <v/>
       </c>
       <c r="G12" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 23, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 23, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 50, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 50, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L12" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 51, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 51, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>技能等級5</t>
+          <t>技能等級6</t>
         </is>
       </c>
       <c r="F13" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 24, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 24, FALSE), ""))</f>
         <v/>
       </c>
       <c r="G13" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 25, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 25, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 52, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 52, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L13" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 53, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 53, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 26, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 26, FALSE), ""))</f>
         <v/>
       </c>
       <c r="G14" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 27, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 27, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>專2</t>
+        </is>
+      </c>
+      <c r="K14" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 54, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 54, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L14" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 55, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 55, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 28, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 28, FALSE), ""))</f>
         <v/>
       </c>
       <c r="G15" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 29, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 29, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 56, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 56, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L15" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 57, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 57, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>技能等級6</t>
-        </is>
-      </c>
-      <c r="F16" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 58, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 58, FALSE), ""))</f>
         <v/>
       </c>
-      <c r="G16" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+      <c r="L16" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 59, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 59, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="1" t="inlineStr">
+        <is>
+          <t>專3</t>
+        </is>
+      </c>
+      <c r="K17" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 60, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 60, FALSE), ""))</f>
         <v/>
       </c>
-      <c r="G17" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+      <c r="L17" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 61, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 61, FALSE), ""))</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 62, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 62, FALSE), ""))</f>
         <v/>
       </c>
-      <c r="G18" s="2">
-        <f>IFNA(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")</f>
+      <c r="L18" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 63, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 63, FALSE), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 64, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 64, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L19" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 65, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 65, FALSE), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="I20" s="1" t="inlineStr">
+        <is>
+          <t>技能3</t>
+        </is>
+      </c>
+      <c r="J20" s="1" t="inlineStr">
+        <is>
+          <t>專1</t>
+        </is>
+      </c>
+      <c r="K20" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 66, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 66, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L20" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 67, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 67, FALSE), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 68, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 68, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L21" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 69, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 69, FALSE), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 70, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 70, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L22" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 71, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 71, FALSE), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="1" t="inlineStr">
+        <is>
+          <t>專2</t>
+        </is>
+      </c>
+      <c r="K23" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 72, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 72, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L23" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 73, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 73, FALSE), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 74, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 74, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L24" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 75, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 75, FALSE), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 76, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 76, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L25" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 77, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 77, FALSE), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="1" t="inlineStr">
+        <is>
+          <t>專3</t>
+        </is>
+      </c>
+      <c r="K26" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 78, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 78, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L26" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 79, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 79, FALSE), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+      <c r="K27" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 80, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 80, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L27" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 81, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 81, FALSE), ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 82, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 82, FALSE), ""))</f>
+        <v/>
+      </c>
+      <c r="L28" s="2">
+        <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 83, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 83, FALSE), ""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="20">
     <mergeCell ref="E2"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="I11:I19"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="I20:I28"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BGuy\Documents\GitHub\arknightcal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E8BF48-0783-4C0A-AA9D-6E5A725B201F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B0A932-209D-4786-8448-4898E2ECEA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1573,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42:S69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="L2" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 31, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 31, FALSE), ""))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>4</v>
@@ -1647,7 +1647,7 @@
         <v>331</v>
       </c>
       <c r="S2" s="2">
-        <f>SUMIF(F:F,R2,G:G)+SUMIF(K:K,R2,L:L)+SUMIF(O:O,R2,P:P)</f>
+        <f t="shared" ref="S2:S33" si="0">SUMIF(F:F,R2,G:G)+SUMIF(K:K,R2,L:L)+SUMIF(O:O,R2,P:P)</f>
         <v>210000</v>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
@@ -1673,7 +1673,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 32, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 32, FALSE), ""))</f>
-        <v>白馬醇</v>
+        <v>糖聚塊</v>
       </c>
       <c r="L3" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 33, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 33, FALSE), ""))</f>
@@ -1682,7 +1682,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 4, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 4, FALSE), ""))</f>
-        <v>先鋒芯片</v>
+        <v>近衛芯片</v>
       </c>
       <c r="P3" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 5, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 5, FALSE), ""))</f>
@@ -1692,7 +1692,7 @@
         <v>273</v>
       </c>
       <c r="S3" s="2">
-        <f>SUMIF(F:F,R3,G:G)+SUMIF(K:K,R3,L:L)+SUMIF(O:O,R3,P:P)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1700,21 +1700,21 @@
       <c r="E4" s="5"/>
       <c r="F4" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 6, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 6, FALSE), ""))</f>
-        <v>代糖</v>
+        <v>酯原料</v>
       </c>
       <c r="G4" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 7, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 7, FALSE), ""))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 34, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 34, FALSE), ""))</f>
-        <v>酮凝集組</v>
+        <v>RMA70-12</v>
       </c>
       <c r="L4" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 35, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 35, FALSE), ""))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="2" t="str">
@@ -1723,21 +1723,21 @@
       </c>
       <c r="P4" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 7, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 7, FALSE), ""))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>307</v>
       </c>
       <c r="S4" s="2">
-        <f>SUMIF(F:F,R4,G:G)+SUMIF(K:K,R4,L:L)+SUMIF(O:O,R4,P:P)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E5" s="5"/>
       <c r="F5" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 8, FALSE), ""))</f>
-        <v>雙酮</v>
+        <v>異鐵碎片</v>
       </c>
       <c r="G5" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 9, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 9, FALSE), ""))</f>
@@ -1758,18 +1758,18 @@
       <c r="N5" s="5"/>
       <c r="O5" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 8, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 8, FALSE), ""))</f>
-        <v>裝置</v>
+        <v>固源巖</v>
       </c>
       <c r="P5" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 9, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 9, FALSE), ""))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="S5" s="2">
-        <f>SUMIF(F:F,R5,G:G)+SUMIF(K:K,R5,L:L)+SUMIF(O:O,R5,P:P)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 38, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 38, FALSE), ""))</f>
-        <v>RMA70-24</v>
+        <v>酮陣列</v>
       </c>
       <c r="L6" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 39, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 39, FALSE), ""))</f>
@@ -1809,25 +1809,25 @@
         <v>288</v>
       </c>
       <c r="S6" s="2">
-        <f>SUMIF(F:F,R6,G:G)+SUMIF(K:K,R6,L:L)+SUMIF(O:O,R6,P:P)</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E7" s="5"/>
       <c r="F7" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 12, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 12, FALSE), ""))</f>
-        <v>聚酸酯</v>
+        <v>異鐵</v>
       </c>
       <c r="G7" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 13, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 13, FALSE), ""))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 40, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 40, FALSE), ""))</f>
-        <v>三水錳礦</v>
+        <v>聚酸酯塊</v>
       </c>
       <c r="L7" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 41, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 41, FALSE), ""))</f>
@@ -1836,7 +1836,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 12, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 12, FALSE), ""))</f>
-        <v>先鋒雙芯片</v>
+        <v>近衛雙芯片</v>
       </c>
       <c r="P7" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 13, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 13, FALSE), ""))</f>
@@ -1846,7 +1846,7 @@
         <v>299</v>
       </c>
       <c r="S7" s="2">
-        <f>SUMIF(F:F,R7,G:G)+SUMIF(K:K,R7,L:L)+SUMIF(O:O,R7,P:P)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1887,15 +1887,15 @@
         <v>290</v>
       </c>
       <c r="S8" s="2">
-        <f>SUMIF(F:F,R8,G:G)+SUMIF(K:K,R8,L:L)+SUMIF(O:O,R8,P:P)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E9" s="5"/>
       <c r="F9" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 16, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 16, FALSE), ""))</f>
-        <v>異鐵</v>
+        <v>酮凝集</v>
       </c>
       <c r="G9" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 17, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 17, FALSE), ""))</f>
@@ -1905,7 +1905,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 44, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 44, FALSE), ""))</f>
-        <v>雙極納米片</v>
+        <v>D32鋼</v>
       </c>
       <c r="L9" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 45, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 45, FALSE), ""))</f>
@@ -1914,46 +1914,46 @@
       <c r="N9" s="5"/>
       <c r="O9" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 16, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 16, FALSE), ""))</f>
-        <v>提純源巖</v>
+        <v>聚酸酯塊</v>
       </c>
       <c r="P9" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 17, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Elite!$A$2:$Q$160, 17, FALSE), ""))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>293</v>
       </c>
       <c r="S9" s="2">
-        <f>SUMIF(F:F,R9,G:G)+SUMIF(K:K,R9,L:L)+SUMIF(O:O,R9,P:P)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E10" s="5"/>
       <c r="F10" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 18, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 18, FALSE), ""))</f>
-        <v>糖</v>
+        <v>固源巖</v>
       </c>
       <c r="G10" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 19, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 19, FALSE), ""))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 46, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 46, FALSE), ""))</f>
-        <v>提純源巖</v>
+        <v>異鐵塊</v>
       </c>
       <c r="L10" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 47, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 47, FALSE), ""))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>295</v>
       </c>
       <c r="S10" s="2">
-        <f>SUMIF(F:F,R10,G:G)+SUMIF(K:K,R10,L:L)+SUMIF(O:O,R10,P:P)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
@@ -1980,21 +1980,21 @@
       </c>
       <c r="L11" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 49, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 49, FALSE), ""))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="S11" s="2">
-        <f>SUMIF(F:F,R11,G:G)+SUMIF(K:K,R11,L:L)+SUMIF(O:O,R11,P:P)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E12" s="5"/>
       <c r="F12" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 22, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 22, FALSE), ""))</f>
-        <v>酮凝集組</v>
+        <v>輕錳礦</v>
       </c>
       <c r="G12" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 23, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 23, FALSE), ""))</f>
@@ -2004,7 +2004,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 50, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 50, FALSE), ""))</f>
-        <v>三水錳礦</v>
+        <v>聚酸酯塊</v>
       </c>
       <c r="L12" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 51, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 51, FALSE), ""))</f>
@@ -2014,8 +2014,8 @@
         <v>276</v>
       </c>
       <c r="S12" s="2">
-        <f>SUMIF(F:F,R12,G:G)+SUMIF(K:K,R12,L:L)+SUMIF(O:O,R12,P:P)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -2034,17 +2034,17 @@
       <c r="J13" s="5"/>
       <c r="K13" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 52, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 52, FALSE), ""))</f>
-        <v>全新裝置</v>
+        <v>固源巖組</v>
       </c>
       <c r="L13" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 53, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 53, FALSE), ""))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>314</v>
       </c>
       <c r="S13" s="2">
-        <f>SUMIF(F:F,R13,G:G)+SUMIF(K:K,R13,L:L)+SUMIF(O:O,R13,P:P)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2052,11 +2052,11 @@
       <c r="E14" s="5"/>
       <c r="F14" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 26, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 26, FALSE), ""))</f>
-        <v>全新裝置</v>
+        <v>研磨石</v>
       </c>
       <c r="G14" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 27, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 27, FALSE), ""))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="4" t="s">
@@ -2074,15 +2074,15 @@
         <v>313</v>
       </c>
       <c r="S14" s="2">
-        <f>SUMIF(F:F,R14,G:G)+SUMIF(K:K,R14,L:L)+SUMIF(O:O,R14,P:P)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
       <c r="F15" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 28, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 28, FALSE), ""))</f>
-        <v>糖組</v>
+        <v>固源巖組</v>
       </c>
       <c r="G15" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 29, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 29, FALSE), ""))</f>
@@ -2092,18 +2092,18 @@
       <c r="J15" s="5"/>
       <c r="K15" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 56, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 56, FALSE), ""))</f>
-        <v>提純源巖</v>
+        <v>改量裝置</v>
       </c>
       <c r="L15" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 57, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 57, FALSE), ""))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>306</v>
       </c>
       <c r="S15" s="2">
-        <f>SUMIF(F:F,R15,G:G)+SUMIF(K:K,R15,L:L)+SUMIF(O:O,R15,P:P)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
@@ -2111,18 +2111,18 @@
       <c r="J16" s="5"/>
       <c r="K16" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 58, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 58, FALSE), ""))</f>
-        <v>五水研磨石</v>
+        <v>異鐵塊</v>
       </c>
       <c r="L16" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 59, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 59, FALSE), ""))</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>275</v>
       </c>
       <c r="S16" s="2">
-        <f>SUMIF(F:F,R16,G:G)+SUMIF(K:K,R16,L:L)+SUMIF(O:O,R16,P:P)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="9:19" x14ac:dyDescent="0.25">
@@ -2142,8 +2142,8 @@
         <v>312</v>
       </c>
       <c r="S17" s="2">
-        <f>SUMIF(F:F,R17,G:G)+SUMIF(K:K,R17,L:L)+SUMIF(O:O,R17,P:P)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="9:19" x14ac:dyDescent="0.25">
@@ -2161,7 +2161,7 @@
         <v>311</v>
       </c>
       <c r="S18" s="2">
-        <f>SUMIF(F:F,R18,G:G)+SUMIF(K:K,R18,L:L)+SUMIF(O:O,R18,P:P)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -2170,18 +2170,18 @@
       <c r="J19" s="5"/>
       <c r="K19" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 64, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 64, FALSE), ""))</f>
-        <v>聚酸酯塊</v>
+        <v>異鐵塊</v>
       </c>
       <c r="L19" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 65, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 65, FALSE), ""))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>305</v>
       </c>
       <c r="S19" s="2">
-        <f>SUMIF(F:F,R19,G:G)+SUMIF(K:K,R19,L:L)+SUMIF(O:O,R19,P:P)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="9:19" x14ac:dyDescent="0.25">
@@ -2197,13 +2197,13 @@
       </c>
       <c r="L20" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 67, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 67, FALSE), ""))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>300</v>
       </c>
       <c r="S20" s="2">
-        <f>SUMIF(F:F,R20,G:G)+SUMIF(K:K,R20,L:L)+SUMIF(O:O,R20,P:P)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 68, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 68, FALSE), ""))</f>
-        <v>五水研磨石</v>
+        <v>異鐵塊</v>
       </c>
       <c r="L21" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 69, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 69, FALSE), ""))</f>
@@ -2222,7 +2222,7 @@
         <v>308</v>
       </c>
       <c r="S21" s="2">
-        <f>SUMIF(F:F,R21,G:G)+SUMIF(K:K,R21,L:L)+SUMIF(O:O,R21,P:P)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2231,18 +2231,18 @@
       <c r="J22" s="5"/>
       <c r="K22" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 70, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 70, FALSE), ""))</f>
-        <v>扭轉醇</v>
+        <v>糖組</v>
       </c>
       <c r="L22" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 71, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 71, FALSE), ""))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>294</v>
       </c>
       <c r="S22" s="2">
-        <f>SUMIF(F:F,R22,G:G)+SUMIF(K:K,R22,L:L)+SUMIF(O:O,R22,P:P)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="9:19" x14ac:dyDescent="0.25">
@@ -2262,8 +2262,8 @@
         <v>289</v>
       </c>
       <c r="S23" s="2">
-        <f>SUMIF(F:F,R23,G:G)+SUMIF(K:K,R23,L:L)+SUMIF(O:O,R23,P:P)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="9:19" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 74, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 74, FALSE), ""))</f>
-        <v>糖聚塊</v>
+        <v>白馬醇</v>
       </c>
       <c r="L24" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 75, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 75, FALSE), ""))</f>
@@ -2281,8 +2281,8 @@
         <v>291</v>
       </c>
       <c r="S24" s="2">
-        <f>SUMIF(F:F,R24,G:G)+SUMIF(K:K,R24,L:L)+SUMIF(O:O,R24,P:P)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="9:19" x14ac:dyDescent="0.25">
@@ -2290,7 +2290,7 @@
       <c r="J25" s="5"/>
       <c r="K25" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 76, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 76, FALSE), ""))</f>
-        <v>RMA70-24</v>
+        <v>酮陣列</v>
       </c>
       <c r="L25" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 77, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 77, FALSE), ""))</f>
@@ -2300,8 +2300,8 @@
         <v>277</v>
       </c>
       <c r="S25" s="2">
-        <f>SUMIF(F:F,R25,G:G)+SUMIF(K:K,R25,L:L)+SUMIF(O:O,R25,P:P)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="9:19" x14ac:dyDescent="0.25">
@@ -2321,8 +2321,8 @@
         <v>282</v>
       </c>
       <c r="S26" s="2">
-        <f>SUMIF(F:F,R26,G:G)+SUMIF(K:K,R26,L:L)+SUMIF(O:O,R26,P:P)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="9:19" x14ac:dyDescent="0.25">
@@ -2330,7 +2330,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 80, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 80, FALSE), ""))</f>
-        <v>聚合劑</v>
+        <v>雙極納米片</v>
       </c>
       <c r="L27" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 81, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 81, FALSE), ""))</f>
@@ -2340,8 +2340,8 @@
         <v>281</v>
       </c>
       <c r="S27" s="2">
-        <f>SUMIF(F:F,R27,G:G)+SUMIF(K:K,R27,L:L)+SUMIF(O:O,R27,P:P)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="9:19" x14ac:dyDescent="0.25">
@@ -2349,17 +2349,17 @@
       <c r="J28" s="5"/>
       <c r="K28" s="2" t="str">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 82, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 82, FALSE), ""))</f>
-        <v>改量裝置</v>
+        <v>五水研磨石</v>
       </c>
       <c r="L28" s="2">
         <f>IF(IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 83, FALSE), "")=0, "", IFERROR(VLOOKUP(C3, Skill!$A$2:$CE$160, 83, FALSE), ""))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>285</v>
       </c>
       <c r="S28" s="2">
-        <f>SUMIF(F:F,R28,G:G)+SUMIF(K:K,R28,L:L)+SUMIF(O:O,R28,P:P)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -2368,8 +2368,8 @@
         <v>296</v>
       </c>
       <c r="S29" s="2">
-        <f>SUMIF(F:F,R29,G:G)+SUMIF(K:K,R29,L:L)+SUMIF(O:O,R29,P:P)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="9:19" x14ac:dyDescent="0.25">
@@ -2377,8 +2377,8 @@
         <v>297</v>
       </c>
       <c r="S30" s="2">
-        <f>SUMIF(F:F,R30,G:G)+SUMIF(K:K,R30,L:L)+SUMIF(O:O,R30,P:P)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="9:19" x14ac:dyDescent="0.25">
@@ -2386,8 +2386,8 @@
         <v>302</v>
       </c>
       <c r="S31" s="2">
-        <f>SUMIF(F:F,R31,G:G)+SUMIF(K:K,R31,L:L)+SUMIF(O:O,R31,P:P)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="9:19" x14ac:dyDescent="0.25">
@@ -2395,8 +2395,8 @@
         <v>280</v>
       </c>
       <c r="S32" s="2">
-        <f>SUMIF(F:F,R32,G:G)+SUMIF(K:K,R32,L:L)+SUMIF(O:O,R32,P:P)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="18:19" x14ac:dyDescent="0.25">
@@ -2404,8 +2404,8 @@
         <v>301</v>
       </c>
       <c r="S33" s="2">
-        <f>SUMIF(F:F,R33,G:G)+SUMIF(K:K,R33,L:L)+SUMIF(O:O,R33,P:P)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="18:19" x14ac:dyDescent="0.25">
@@ -2413,8 +2413,8 @@
         <v>287</v>
       </c>
       <c r="S34" s="2">
-        <f>SUMIF(F:F,R34,G:G)+SUMIF(K:K,R34,L:L)+SUMIF(O:O,R34,P:P)</f>
-        <v>12</v>
+        <f t="shared" ref="S34:S65" si="1">SUMIF(F:F,R34,G:G)+SUMIF(K:K,R34,L:L)+SUMIF(O:O,R34,P:P)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="18:19" x14ac:dyDescent="0.25">
@@ -2422,8 +2422,8 @@
         <v>298</v>
       </c>
       <c r="S35" s="2">
-        <f>SUMIF(F:F,R35,G:G)+SUMIF(K:K,R35,L:L)+SUMIF(O:O,R35,P:P)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="18:19" x14ac:dyDescent="0.25">
@@ -2431,7 +2431,7 @@
         <v>362</v>
       </c>
       <c r="S36" s="2">
-        <f>SUMIF(F:F,R36,G:G)+SUMIF(K:K,R36,L:L)+SUMIF(O:O,R36,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2440,8 +2440,8 @@
         <v>304</v>
       </c>
       <c r="S37" s="2">
-        <f>SUMIF(F:F,R37,G:G)+SUMIF(K:K,R37,L:L)+SUMIF(O:O,R37,P:P)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="18:19" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
         <v>279</v>
       </c>
       <c r="S38" s="2">
-        <f>SUMIF(F:F,R38,G:G)+SUMIF(K:K,R38,L:L)+SUMIF(O:O,R38,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
         <v>283</v>
       </c>
       <c r="S39" s="2">
-        <f>SUMIF(F:F,R39,G:G)+SUMIF(K:K,R39,L:L)+SUMIF(O:O,R39,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
         <v>292</v>
       </c>
       <c r="S40" s="2">
-        <f>SUMIF(F:F,R40,G:G)+SUMIF(K:K,R40,L:L)+SUMIF(O:O,R40,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
         <v>286</v>
       </c>
       <c r="S41" s="2">
-        <f>SUMIF(F:F,R41,G:G)+SUMIF(K:K,R41,L:L)+SUMIF(O:O,R41,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
         <v>272</v>
       </c>
       <c r="S42" s="2">
-        <f>SUMIF(F:F,R42,G:G)+SUMIF(K:K,R42,L:L)+SUMIF(O:O,R42,P:P)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
         <v>274</v>
       </c>
       <c r="S43" s="2">
-        <f>SUMIF(F:F,R43,G:G)+SUMIF(K:K,R43,L:L)+SUMIF(O:O,R43,P:P)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -2503,8 +2503,8 @@
         <v>278</v>
       </c>
       <c r="S44" s="2">
-        <f>SUMIF(F:F,R44,G:G)+SUMIF(K:K,R44,L:L)+SUMIF(O:O,R44,P:P)</f>
-        <v>107</v>
+        <f t="shared" si="1"/>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="18:19" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>363</v>
       </c>
       <c r="S45" s="2">
-        <f>SUMIF(F:F,R45,G:G)+SUMIF(K:K,R45,L:L)+SUMIF(O:O,R45,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
         <v>364</v>
       </c>
       <c r="S46" s="2">
-        <f>SUMIF(F:F,R46,G:G)+SUMIF(K:K,R46,L:L)+SUMIF(O:O,R46,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
         <v>365</v>
       </c>
       <c r="S47" s="2">
-        <f>SUMIF(F:F,R47,G:G)+SUMIF(K:K,R47,L:L)+SUMIF(O:O,R47,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
         <v>366</v>
       </c>
       <c r="S48" s="2">
-        <f>SUMIF(F:F,R48,G:G)+SUMIF(K:K,R48,L:L)+SUMIF(O:O,R48,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
         <v>367</v>
       </c>
       <c r="S49" s="2">
-        <f>SUMIF(F:F,R49,G:G)+SUMIF(K:K,R49,L:L)+SUMIF(O:O,R49,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
         <v>368</v>
       </c>
       <c r="S50" s="2">
-        <f>SUMIF(F:F,R50,G:G)+SUMIF(K:K,R50,L:L)+SUMIF(O:O,R50,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
         <v>369</v>
       </c>
       <c r="S51" s="2">
-        <f>SUMIF(F:F,R51,G:G)+SUMIF(K:K,R51,L:L)+SUMIF(O:O,R51,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
         <v>370</v>
       </c>
       <c r="S52" s="2">
-        <f>SUMIF(F:F,R52,G:G)+SUMIF(K:K,R52,L:L)+SUMIF(O:O,R52,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
         <v>371</v>
       </c>
       <c r="S53" s="2">
-        <f>SUMIF(F:F,R53,G:G)+SUMIF(K:K,R53,L:L)+SUMIF(O:O,R53,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
         <v>372</v>
       </c>
       <c r="S54" s="2">
-        <f>SUMIF(F:F,R54,G:G)+SUMIF(K:K,R54,L:L)+SUMIF(O:O,R54,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2602,7 +2602,7 @@
         <v>373</v>
       </c>
       <c r="S55" s="2">
-        <f>SUMIF(F:F,R55,G:G)+SUMIF(K:K,R55,L:L)+SUMIF(O:O,R55,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
         <v>374</v>
       </c>
       <c r="S56" s="2">
-        <f>SUMIF(F:F,R56,G:G)+SUMIF(K:K,R56,L:L)+SUMIF(O:O,R56,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
         <v>375</v>
       </c>
       <c r="S57" s="2">
-        <f>SUMIF(F:F,R57,G:G)+SUMIF(K:K,R57,L:L)+SUMIF(O:O,R57,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
         <v>376</v>
       </c>
       <c r="S58" s="2">
-        <f>SUMIF(F:F,R58,G:G)+SUMIF(K:K,R58,L:L)+SUMIF(O:O,R58,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
         <v>377</v>
       </c>
       <c r="S59" s="2">
-        <f>SUMIF(F:F,R59,G:G)+SUMIF(K:K,R59,L:L)+SUMIF(O:O,R59,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
         <v>378</v>
       </c>
       <c r="S60" s="2">
-        <f>SUMIF(F:F,R60,G:G)+SUMIF(K:K,R60,L:L)+SUMIF(O:O,R60,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
         <v>379</v>
       </c>
       <c r="S61" s="2">
-        <f>SUMIF(F:F,R61,G:G)+SUMIF(K:K,R61,L:L)+SUMIF(O:O,R61,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
         <v>380</v>
       </c>
       <c r="S62" s="2">
-        <f>SUMIF(F:F,R62,G:G)+SUMIF(K:K,R62,L:L)+SUMIF(O:O,R62,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
         <v>381</v>
       </c>
       <c r="S63" s="2">
-        <f>SUMIF(F:F,R63,G:G)+SUMIF(K:K,R63,L:L)+SUMIF(O:O,R63,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
         <v>382</v>
       </c>
       <c r="S64" s="2">
-        <f>SUMIF(F:F,R64,G:G)+SUMIF(K:K,R64,L:L)+SUMIF(O:O,R64,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
         <v>383</v>
       </c>
       <c r="S65" s="2">
-        <f>SUMIF(F:F,R65,G:G)+SUMIF(K:K,R65,L:L)+SUMIF(O:O,R65,P:P)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
         <v>384</v>
       </c>
       <c r="S66" s="2">
-        <f>SUMIF(F:F,R66,G:G)+SUMIF(K:K,R66,L:L)+SUMIF(O:O,R66,P:P)</f>
+        <f t="shared" ref="S66:S97" si="2">SUMIF(F:F,R66,G:G)+SUMIF(K:K,R66,L:L)+SUMIF(O:O,R66,P:P)</f>
         <v>0</v>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
         <v>385</v>
       </c>
       <c r="S67" s="2">
-        <f>SUMIF(F:F,R67,G:G)+SUMIF(K:K,R67,L:L)+SUMIF(O:O,R67,P:P)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
         <v>386</v>
       </c>
       <c r="S68" s="2">
-        <f>SUMIF(F:F,R68,G:G)+SUMIF(K:K,R68,L:L)+SUMIF(O:O,R68,P:P)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2728,18 +2728,12 @@
         <v>387</v>
       </c>
       <c r="S69" s="2">
-        <f>SUMIF(F:F,R69,G:G)+SUMIF(K:K,R69,L:L)+SUMIF(O:O,R69,P:P)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I20:I28"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="N6:N9"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="I2:I10"/>
     <mergeCell ref="J2:J4"/>
@@ -2754,6 +2748,12 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I20:I28"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
